--- a/exports/releve_02.xlsx
+++ b/exports/releve_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Banque</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Titulaire</t>
   </si>
   <si>
+    <t>01-Mar-2017 O 01-Mar-2017 5,000.00 8,039.82 FBNMOBILE:MOHAMMED MUSA HASKE/LIBRACIN</t>
+  </si>
+  <si>
     <t>Période</t>
   </si>
   <si>
@@ -44,6 +47,30 @@
   </si>
   <si>
     <t>Sens</t>
+  </si>
+  <si>
+    <t>21/91</t>
+  </si>
+  <si>
+    <t>Account No: 012345678 - (66432/1/13/0) Currency :Naira Period: 01/Mar/2017 To 16/Mar/2017 Opening Balance: Trans Date Reference Value Date Debit Credit Balance Remarks TRANSFER BETWEEN CUSTOMERS 000016170301074834000150646887 01-Mar-2017 O 01-Mar-2017 5,000.00 8,039.82 FBNMOBILE:MOHAMMED MUSA HASKE/LIBRACIN 636239513140470886 OGUMGBU CHETACHI SIXTUS to MOHAMMED MUSA HASKE CASH WITHDRAWAL FROM OUR ATM -004273- - GTBank 1902 Ahmadu Bello Jos PLNG CASH WITHDRAWAL FROM OUR ATM -001885- - GTBank Jengre Road JOS 1 PLNG ATM/POS ACOUNT TO ACCOUNT TRANSFER -812087-- 000027102422;Acct Trsf:musaMohammedhaske NIBSS Instant Payment Outward 000013170306144649000009994924 USSD NIP Transfer from : 07034433706 TO ACCESS/TANSI ITAMAN REF:000013170306144649000009994924 COMMISSION 000013170306144649000009994924 USSD NIP Transfer from : 07034433706 TO 01-Mar-2017 3320004273 01-Mar-2017 5,000.00 03-Mar-2017 3310001885 03-Mar-2017 3,000.00 39.82 06-Mar-2017 9999812087 06-Mar-2017 20,000.00 20,039.82 06-Mar-2017. 0 06-Mar-2017 10,000.00 10,039.82 06-Mar-2017, 0. 06-Mar-2017 100.00 9,939.82 ,CCEcs/TANSI ITAMAN REF:000013170306144649000009994924 06-Mar-2017 i) 06-Mar-2017 5.00 9,934.82 VALUE ADDED TAX USSD NIP Transfer from : 0703 POS/WEB PURCHASE TRANSACTION -008430- - 08-Mar-2017 9999008430 07-Mar-2017 9,800.00 134,02/ ns Sea wien waratar tae FASTTRACK CASH DEPOSIT PINPAD-42220045-</t>
+  </si>
+  <si>
+    <t>3,039.82</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>32/87</t>
+  </si>
+  <si>
+    <t>08-Mar-2017 0 08-Mar-2017 35,000.00 35,134.82 388 CASH DEPOSIT BY MOHAMMED MUSA HASKE 000636245691498822226338096987 NIBSS Instant Payment Outward 000013170309113623000010650577 TO FB/CHUKWUALUKA ILIEMENE REF:000013170309113623000010650577 COMMISSION 000013170309113623000010650577 09-Mar-2017 O 09-Mar-2017 28,134.82 09-Mar-2017 0 09-Mar-2017 100.00 28,034.82 TO FB/CHUKWUALUKA ILIEMENE REF:000013170309113623000010650577 09-Mar-2017 0 09-Mar-2017 5.00 28,029.82 VALUE ADDED TAX TO FB/CHUKWUALUKA ILIEMENE NIBSS Instant Payment Outward 000013170310063946000010750550 Smartzee (haske006@gmail.com) TO STERLING/ADESIYAN.COM LIMITED REF:000013170310063946000010750550 COMMISSION 000013170310063946000010750550 Smartzee (haske006@gmail.com) TO 10-Mar-2017 0 10-Mar-2017 26,770.00 1,259.82 eae saiincalinccael 100.00 1,159.82 STERLING/ADESIYAN.COM LIMITED REF:000013170310063946000010750550 10-Mar-2017 fo) 10-Mar-2017 5.00 1,154.82 VALUE ADDED TAX Smartzee (haske006@gmail.com) 154.2 POS/WEB PURCHASE TRANSACTION -023992- - 10-Mar-2017 9999023992 10-Mar-2017 1,000.00 ae ee ay ae wwrananaber Lane 13-Mar-2017 9999009251 «13-Mar-2017 10,000.00 10,154.82 FUNDS TRANSFER -009251- -FCMB Jos Br Jos PLNG TRANSFER BETWEEN CUSTOMERS via Internet 13-Mar-2017 fe) 13-Mar-2017 10,000.00 154.82 Banking from MOHAMMED MUSA HASKE to SUNDAY CHUKWUDI VICTOR 20,154.82 ATM/POS ACOUNT TO ACCOUNT TRANSFER -978298-- 13-Mar-2017 9999978298 13-Mar-2017 20,000.00 — 000027366089; Acct Trsf: NIBSS Instant Payment Outward 154.82 000013170312195807000011199244 Musa M haske 13-Mar-2017 0 13-Mar-2017 20,000.00 . TO DBN/NWANERI ANGUS NNAMDI REF:000013170312195807000011199244</t>
+  </si>
+  <si>
+    <t>7,000.00</t>
+  </si>
+  <si>
+    <t>Dr</t>
   </si>
 </sst>
 </file>
@@ -375,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,24 +428,55 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
